--- a/Acc_fijos_N.xlsx
+++ b/Acc_fijos_N.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\4-Comunicaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C0F222-8313-4EFA-A709-567786969432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683BBB74-929D-4D48-A2E5-FB06C64622BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_42.1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="24">
   <si>
     <t>Total</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Ambos</t>
   </si>
   <si>
-    <t>Accesos a internte fijo</t>
-  </si>
-  <si>
     <t>Penetración (Accesos p/c 100 hogares)</t>
   </si>
   <si>
@@ -75,6 +72,45 @@
   </si>
   <si>
     <t>Actualización: agosto 2024.</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
+  </si>
+  <si>
+    <t>Accesos a internet fijo</t>
   </si>
 </sst>
 </file>
@@ -325,12 +361,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -363,6 +393,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -414,6 +450,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -421,12 +463,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -482,7 +518,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:I80" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:I80" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="B5:I80" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
@@ -740,7 +776,7 @@
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="5.796875" customWidth="1"/>
-    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.3984375" customWidth="1"/>
     <col min="4" max="4" width="11.59765625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.19921875" bestFit="1" customWidth="1"/>
@@ -750,7 +786,7 @@
   <sheetData>
     <row r="2" spans="2:16" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -761,21 +797,21 @@
     <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" s="34"/>
       <c r="C4" s="33"/>
-      <c r="D4" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="D4" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
     </row>
     <row r="5" spans="2:16" ht="36" x14ac:dyDescent="0.35">
       <c r="B5" s="35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>0</v>
@@ -793,15 +829,15 @@
         <v>5</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B6" s="40">
+      <c r="B6" s="38">
         <v>2024</v>
       </c>
-      <c r="C6" s="41">
-        <v>3</v>
+      <c r="C6" s="39" t="s">
+        <v>16</v>
       </c>
       <c r="D6" s="19">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -826,11 +862,11 @@
       <c r="P6" s="36"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B7" s="42">
+      <c r="B7" s="40">
         <v>2024</v>
       </c>
-      <c r="C7" s="43">
-        <v>2</v>
+      <c r="C7" s="41" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="22">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -855,11 +891,11 @@
       <c r="P7" s="36"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B8" s="44">
+      <c r="B8" s="42">
         <v>2024</v>
       </c>
-      <c r="C8" s="45">
-        <v>1</v>
+      <c r="C8" s="43" t="s">
+        <v>18</v>
       </c>
       <c r="D8" s="28">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -884,11 +920,11 @@
       <c r="P8" s="36"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B9" s="42">
+      <c r="B9" s="40">
         <v>2023</v>
       </c>
-      <c r="C9" s="43">
-        <v>12</v>
+      <c r="C9" s="41" t="s">
+        <v>19</v>
       </c>
       <c r="D9" s="22">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -913,11 +949,11 @@
       <c r="P9" s="36"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B10" s="46">
+      <c r="B10" s="44">
         <v>2023</v>
       </c>
-      <c r="C10" s="47">
-        <v>11</v>
+      <c r="C10" s="45" t="s">
+        <v>20</v>
       </c>
       <c r="D10" s="25">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -942,11 +978,11 @@
       <c r="P10" s="36"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B11" s="42">
+      <c r="B11" s="40">
         <v>2023</v>
       </c>
-      <c r="C11" s="43">
-        <v>10</v>
+      <c r="C11" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="D11" s="22">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -971,11 +1007,11 @@
       <c r="P11" s="36"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B12" s="46">
+      <c r="B12" s="44">
         <v>2023</v>
       </c>
-      <c r="C12" s="47">
-        <v>9</v>
+      <c r="C12" s="45" t="s">
+        <v>22</v>
       </c>
       <c r="D12" s="25">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1000,11 +1036,11 @@
       <c r="P12" s="36"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B13" s="42">
+      <c r="B13" s="40">
         <v>2023</v>
       </c>
-      <c r="C13" s="43">
-        <v>8</v>
+      <c r="C13" s="41" t="s">
+        <v>11</v>
       </c>
       <c r="D13" s="22">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1029,11 +1065,11 @@
       <c r="P13" s="36"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B14" s="46">
+      <c r="B14" s="44">
         <v>2023</v>
       </c>
-      <c r="C14" s="47">
-        <v>7</v>
+      <c r="C14" s="45" t="s">
+        <v>12</v>
       </c>
       <c r="D14" s="25">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1058,11 +1094,11 @@
       <c r="P14" s="36"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B15" s="42">
+      <c r="B15" s="40">
         <v>2023</v>
       </c>
-      <c r="C15" s="43">
-        <v>6</v>
+      <c r="C15" s="41" t="s">
+        <v>13</v>
       </c>
       <c r="D15" s="22">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1085,11 +1121,11 @@
       <c r="P15" s="36"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B16" s="46">
+      <c r="B16" s="44">
         <v>2023</v>
       </c>
-      <c r="C16" s="47">
-        <v>5</v>
+      <c r="C16" s="45" t="s">
+        <v>14</v>
       </c>
       <c r="D16" s="25">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1112,11 +1148,11 @@
       <c r="P16" s="36"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B17" s="42">
+      <c r="B17" s="40">
         <v>2023</v>
       </c>
-      <c r="C17" s="43">
-        <v>4</v>
+      <c r="C17" s="41" t="s">
+        <v>15</v>
       </c>
       <c r="D17" s="22">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1139,11 +1175,11 @@
       <c r="P17" s="36"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B18" s="46">
+      <c r="B18" s="44">
         <v>2023</v>
       </c>
-      <c r="C18" s="47">
-        <v>3</v>
+      <c r="C18" s="45" t="s">
+        <v>16</v>
       </c>
       <c r="D18" s="25">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1166,11 +1202,11 @@
       <c r="P18" s="36"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B19" s="42">
+      <c r="B19" s="40">
         <v>2023</v>
       </c>
-      <c r="C19" s="43">
-        <v>2</v>
+      <c r="C19" s="41" t="s">
+        <v>17</v>
       </c>
       <c r="D19" s="22">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1193,11 +1229,11 @@
       <c r="P19" s="36"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B20" s="44">
+      <c r="B20" s="42">
         <v>2023</v>
       </c>
-      <c r="C20" s="45">
-        <v>1</v>
+      <c r="C20" s="43" t="s">
+        <v>18</v>
       </c>
       <c r="D20" s="28">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1220,11 +1256,11 @@
       <c r="P20" s="36"/>
     </row>
     <row r="21" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="48">
+      <c r="B21" s="46">
         <v>2022</v>
       </c>
-      <c r="C21" s="49">
-        <v>12</v>
+      <c r="C21" s="47" t="s">
+        <v>19</v>
       </c>
       <c r="D21" s="10">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1247,11 +1283,11 @@
       <c r="P21" s="36"/>
     </row>
     <row r="22" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="46">
+      <c r="B22" s="44">
         <v>2022</v>
       </c>
-      <c r="C22" s="47">
-        <v>11</v>
+      <c r="C22" s="45" t="s">
+        <v>20</v>
       </c>
       <c r="D22" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1274,11 +1310,11 @@
       <c r="P22" s="36"/>
     </row>
     <row r="23" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="42">
+      <c r="B23" s="40">
         <v>2022</v>
       </c>
-      <c r="C23" s="43">
-        <v>10</v>
+      <c r="C23" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="D23" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1301,11 +1337,11 @@
       <c r="P23" s="36"/>
     </row>
     <row r="24" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="46">
+      <c r="B24" s="44">
         <v>2022</v>
       </c>
-      <c r="C24" s="47">
-        <v>9</v>
+      <c r="C24" s="45" t="s">
+        <v>22</v>
       </c>
       <c r="D24" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1328,11 +1364,11 @@
       <c r="P24" s="36"/>
     </row>
     <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="42">
+      <c r="B25" s="40">
         <v>2022</v>
       </c>
-      <c r="C25" s="43">
-        <v>8</v>
+      <c r="C25" s="41" t="s">
+        <v>11</v>
       </c>
       <c r="D25" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1355,11 +1391,11 @@
       <c r="P25" s="36"/>
     </row>
     <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="46">
+      <c r="B26" s="44">
         <v>2022</v>
       </c>
-      <c r="C26" s="47">
-        <v>7</v>
+      <c r="C26" s="45" t="s">
+        <v>12</v>
       </c>
       <c r="D26" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1382,11 +1418,11 @@
       <c r="P26" s="36"/>
     </row>
     <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="42">
+      <c r="B27" s="40">
         <v>2022</v>
       </c>
-      <c r="C27" s="43">
-        <v>6</v>
+      <c r="C27" s="41" t="s">
+        <v>13</v>
       </c>
       <c r="D27" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1409,11 +1445,11 @@
       <c r="P27" s="36"/>
     </row>
     <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="46">
+      <c r="B28" s="44">
         <v>2022</v>
       </c>
-      <c r="C28" s="47">
-        <v>5</v>
+      <c r="C28" s="45" t="s">
+        <v>14</v>
       </c>
       <c r="D28" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1436,11 +1472,11 @@
       <c r="P28" s="36"/>
     </row>
     <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="42">
+      <c r="B29" s="40">
         <v>2022</v>
       </c>
-      <c r="C29" s="43">
-        <v>4</v>
+      <c r="C29" s="41" t="s">
+        <v>15</v>
       </c>
       <c r="D29" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1463,11 +1499,11 @@
       <c r="P29" s="36"/>
     </row>
     <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="46">
+      <c r="B30" s="44">
         <v>2022</v>
       </c>
-      <c r="C30" s="47">
-        <v>3</v>
+      <c r="C30" s="45" t="s">
+        <v>16</v>
       </c>
       <c r="D30" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1490,11 +1526,11 @@
       <c r="P30" s="36"/>
     </row>
     <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="42">
+      <c r="B31" s="40">
         <v>2022</v>
       </c>
-      <c r="C31" s="43">
-        <v>2</v>
+      <c r="C31" s="41" t="s">
+        <v>17</v>
       </c>
       <c r="D31" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1517,11 +1553,11 @@
       <c r="P31" s="36"/>
     </row>
     <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="44">
+      <c r="B32" s="42">
         <v>2022</v>
       </c>
-      <c r="C32" s="45">
-        <v>1</v>
+      <c r="C32" s="43" t="s">
+        <v>18</v>
       </c>
       <c r="D32" s="8">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1544,11 +1580,11 @@
       <c r="P32" s="36"/>
     </row>
     <row r="33" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="48">
+      <c r="B33" s="46">
         <v>2021</v>
       </c>
-      <c r="C33" s="49">
-        <v>12</v>
+      <c r="C33" s="47" t="s">
+        <v>19</v>
       </c>
       <c r="D33" s="10">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1571,11 +1607,11 @@
       <c r="P33" s="36"/>
     </row>
     <row r="34" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="46">
+      <c r="B34" s="44">
         <v>2021</v>
       </c>
-      <c r="C34" s="47">
-        <v>11</v>
+      <c r="C34" s="45" t="s">
+        <v>20</v>
       </c>
       <c r="D34" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1598,11 +1634,11 @@
       <c r="P34" s="36"/>
     </row>
     <row r="35" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="42">
+      <c r="B35" s="40">
         <v>2021</v>
       </c>
-      <c r="C35" s="43">
-        <v>10</v>
+      <c r="C35" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="D35" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1625,11 +1661,11 @@
       <c r="P35" s="36"/>
     </row>
     <row r="36" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="46">
+      <c r="B36" s="44">
         <v>2021</v>
       </c>
-      <c r="C36" s="47">
-        <v>9</v>
+      <c r="C36" s="45" t="s">
+        <v>22</v>
       </c>
       <c r="D36" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1652,11 +1688,11 @@
       <c r="P36" s="36"/>
     </row>
     <row r="37" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="42">
+      <c r="B37" s="40">
         <v>2021</v>
       </c>
-      <c r="C37" s="43">
-        <v>8</v>
+      <c r="C37" s="41" t="s">
+        <v>11</v>
       </c>
       <c r="D37" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1679,11 +1715,11 @@
       <c r="P37" s="36"/>
     </row>
     <row r="38" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="46">
+      <c r="B38" s="44">
         <v>2021</v>
       </c>
-      <c r="C38" s="47">
-        <v>7</v>
+      <c r="C38" s="45" t="s">
+        <v>12</v>
       </c>
       <c r="D38" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1706,11 +1742,11 @@
       <c r="P38" s="36"/>
     </row>
     <row r="39" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="42">
+      <c r="B39" s="40">
         <v>2021</v>
       </c>
-      <c r="C39" s="43">
-        <v>6</v>
+      <c r="C39" s="41" t="s">
+        <v>13</v>
       </c>
       <c r="D39" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1733,11 +1769,11 @@
       <c r="P39" s="36"/>
     </row>
     <row r="40" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="46">
+      <c r="B40" s="44">
         <v>2021</v>
       </c>
-      <c r="C40" s="47">
-        <v>5</v>
+      <c r="C40" s="45" t="s">
+        <v>14</v>
       </c>
       <c r="D40" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1760,11 +1796,11 @@
       <c r="P40" s="36"/>
     </row>
     <row r="41" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="42">
+      <c r="B41" s="40">
         <v>2021</v>
       </c>
-      <c r="C41" s="43">
-        <v>4</v>
+      <c r="C41" s="41" t="s">
+        <v>15</v>
       </c>
       <c r="D41" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1787,11 +1823,11 @@
       <c r="P41" s="36"/>
     </row>
     <row r="42" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="46">
+      <c r="B42" s="44">
         <v>2021</v>
       </c>
-      <c r="C42" s="47">
-        <v>3</v>
+      <c r="C42" s="45" t="s">
+        <v>16</v>
       </c>
       <c r="D42" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1814,11 +1850,11 @@
       <c r="P42" s="36"/>
     </row>
     <row r="43" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="42">
+      <c r="B43" s="40">
         <v>2021</v>
       </c>
-      <c r="C43" s="43">
-        <v>2</v>
+      <c r="C43" s="41" t="s">
+        <v>17</v>
       </c>
       <c r="D43" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1841,11 +1877,11 @@
       <c r="P43" s="36"/>
     </row>
     <row r="44" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="44">
+      <c r="B44" s="42">
         <v>2021</v>
       </c>
-      <c r="C44" s="45">
-        <v>1</v>
+      <c r="C44" s="43" t="s">
+        <v>18</v>
       </c>
       <c r="D44" s="8">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1868,11 +1904,11 @@
       <c r="P44" s="36"/>
     </row>
     <row r="45" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="48">
+      <c r="B45" s="46">
         <v>2020</v>
       </c>
-      <c r="C45" s="49">
-        <v>12</v>
+      <c r="C45" s="47" t="s">
+        <v>19</v>
       </c>
       <c r="D45" s="10">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1895,11 +1931,11 @@
       <c r="P45" s="36"/>
     </row>
     <row r="46" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="46">
+      <c r="B46" s="44">
         <v>2020</v>
       </c>
-      <c r="C46" s="47">
-        <v>11</v>
+      <c r="C46" s="45" t="s">
+        <v>20</v>
       </c>
       <c r="D46" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1922,11 +1958,11 @@
       <c r="P46" s="36"/>
     </row>
     <row r="47" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="42">
+      <c r="B47" s="40">
         <v>2020</v>
       </c>
-      <c r="C47" s="43">
-        <v>10</v>
+      <c r="C47" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="D47" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1949,11 +1985,11 @@
       <c r="P47" s="36"/>
     </row>
     <row r="48" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="46">
+      <c r="B48" s="44">
         <v>2020</v>
       </c>
-      <c r="C48" s="47">
-        <v>9</v>
+      <c r="C48" s="45" t="s">
+        <v>22</v>
       </c>
       <c r="D48" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1976,11 +2012,11 @@
       <c r="P48" s="36"/>
     </row>
     <row r="49" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="42">
+      <c r="B49" s="40">
         <v>2020</v>
       </c>
-      <c r="C49" s="43">
-        <v>8</v>
+      <c r="C49" s="41" t="s">
+        <v>11</v>
       </c>
       <c r="D49" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2003,11 +2039,11 @@
       <c r="P49" s="36"/>
     </row>
     <row r="50" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="46">
+      <c r="B50" s="44">
         <v>2020</v>
       </c>
-      <c r="C50" s="47">
-        <v>7</v>
+      <c r="C50" s="45" t="s">
+        <v>12</v>
       </c>
       <c r="D50" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2030,11 +2066,11 @@
       <c r="P50" s="36"/>
     </row>
     <row r="51" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="42">
+      <c r="B51" s="40">
         <v>2020</v>
       </c>
-      <c r="C51" s="43">
-        <v>6</v>
+      <c r="C51" s="41" t="s">
+        <v>13</v>
       </c>
       <c r="D51" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2057,11 +2093,11 @@
       <c r="P51" s="36"/>
     </row>
     <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="46">
+      <c r="B52" s="44">
         <v>2020</v>
       </c>
-      <c r="C52" s="47">
-        <v>5</v>
+      <c r="C52" s="45" t="s">
+        <v>14</v>
       </c>
       <c r="D52" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2084,11 +2120,11 @@
       <c r="P52" s="36"/>
     </row>
     <row r="53" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="42">
+      <c r="B53" s="40">
         <v>2020</v>
       </c>
-      <c r="C53" s="43">
-        <v>4</v>
+      <c r="C53" s="41" t="s">
+        <v>15</v>
       </c>
       <c r="D53" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2111,11 +2147,11 @@
       <c r="P53" s="36"/>
     </row>
     <row r="54" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="46">
+      <c r="B54" s="44">
         <v>2020</v>
       </c>
-      <c r="C54" s="47">
-        <v>3</v>
+      <c r="C54" s="45" t="s">
+        <v>16</v>
       </c>
       <c r="D54" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2138,11 +2174,11 @@
       <c r="P54" s="36"/>
     </row>
     <row r="55" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="42">
+      <c r="B55" s="40">
         <v>2020</v>
       </c>
-      <c r="C55" s="43">
-        <v>2</v>
+      <c r="C55" s="41" t="s">
+        <v>17</v>
       </c>
       <c r="D55" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2165,11 +2201,11 @@
       <c r="P55" s="36"/>
     </row>
     <row r="56" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="44">
+      <c r="B56" s="42">
         <v>2020</v>
       </c>
-      <c r="C56" s="45">
-        <v>1</v>
+      <c r="C56" s="43" t="s">
+        <v>18</v>
       </c>
       <c r="D56" s="8">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2192,11 +2228,11 @@
       <c r="P56" s="36"/>
     </row>
     <row r="57" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="48">
+      <c r="B57" s="46">
         <v>2019</v>
       </c>
-      <c r="C57" s="49">
-        <v>12</v>
+      <c r="C57" s="47" t="s">
+        <v>19</v>
       </c>
       <c r="D57" s="10">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2219,11 +2255,11 @@
       <c r="P57" s="36"/>
     </row>
     <row r="58" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="46">
+      <c r="B58" s="44">
         <v>2019</v>
       </c>
-      <c r="C58" s="47">
-        <v>11</v>
+      <c r="C58" s="45" t="s">
+        <v>20</v>
       </c>
       <c r="D58" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2246,11 +2282,11 @@
       <c r="P58" s="36"/>
     </row>
     <row r="59" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="42">
+      <c r="B59" s="40">
         <v>2019</v>
       </c>
-      <c r="C59" s="43">
-        <v>10</v>
+      <c r="C59" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="D59" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2273,11 +2309,11 @@
       <c r="P59" s="36"/>
     </row>
     <row r="60" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="46">
+      <c r="B60" s="44">
         <v>2019</v>
       </c>
-      <c r="C60" s="47">
-        <v>9</v>
+      <c r="C60" s="45" t="s">
+        <v>22</v>
       </c>
       <c r="D60" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2300,11 +2336,11 @@
       <c r="P60" s="36"/>
     </row>
     <row r="61" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="42">
+      <c r="B61" s="40">
         <v>2019</v>
       </c>
-      <c r="C61" s="43">
-        <v>8</v>
+      <c r="C61" s="41" t="s">
+        <v>11</v>
       </c>
       <c r="D61" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2327,11 +2363,11 @@
       <c r="P61" s="36"/>
     </row>
     <row r="62" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="46">
+      <c r="B62" s="44">
         <v>2019</v>
       </c>
-      <c r="C62" s="47">
-        <v>7</v>
+      <c r="C62" s="45" t="s">
+        <v>12</v>
       </c>
       <c r="D62" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2354,11 +2390,11 @@
       <c r="P62" s="36"/>
     </row>
     <row r="63" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="42">
+      <c r="B63" s="40">
         <v>2019</v>
       </c>
-      <c r="C63" s="43">
-        <v>6</v>
+      <c r="C63" s="41" t="s">
+        <v>13</v>
       </c>
       <c r="D63" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2381,11 +2417,11 @@
       <c r="P63" s="36"/>
     </row>
     <row r="64" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="46">
+      <c r="B64" s="44">
         <v>2019</v>
       </c>
-      <c r="C64" s="47">
-        <v>5</v>
+      <c r="C64" s="45" t="s">
+        <v>14</v>
       </c>
       <c r="D64" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2408,11 +2444,11 @@
       <c r="P64" s="36"/>
     </row>
     <row r="65" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="42">
+      <c r="B65" s="40">
         <v>2019</v>
       </c>
-      <c r="C65" s="43">
-        <v>4</v>
+      <c r="C65" s="41" t="s">
+        <v>15</v>
       </c>
       <c r="D65" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2435,11 +2471,11 @@
       <c r="P65" s="36"/>
     </row>
     <row r="66" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="46">
+      <c r="B66" s="44">
         <v>2019</v>
       </c>
-      <c r="C66" s="47">
-        <v>3</v>
+      <c r="C66" s="45" t="s">
+        <v>16</v>
       </c>
       <c r="D66" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2462,11 +2498,11 @@
       <c r="P66" s="36"/>
     </row>
     <row r="67" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="42">
+      <c r="B67" s="40">
         <v>2019</v>
       </c>
-      <c r="C67" s="43">
-        <v>2</v>
+      <c r="C67" s="41" t="s">
+        <v>17</v>
       </c>
       <c r="D67" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2489,11 +2525,11 @@
       <c r="P67" s="36"/>
     </row>
     <row r="68" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="44">
+      <c r="B68" s="42">
         <v>2019</v>
       </c>
-      <c r="C68" s="45">
-        <v>1</v>
+      <c r="C68" s="43" t="s">
+        <v>18</v>
       </c>
       <c r="D68" s="8">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2516,11 +2552,11 @@
       <c r="P68" s="36"/>
     </row>
     <row r="69" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="42">
+      <c r="B69" s="40">
         <v>2018</v>
       </c>
-      <c r="C69" s="43">
-        <v>12</v>
+      <c r="C69" s="41" t="s">
+        <v>19</v>
       </c>
       <c r="D69" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2543,11 +2579,11 @@
       <c r="P69" s="36"/>
     </row>
     <row r="70" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="46">
+      <c r="B70" s="44">
         <v>2018</v>
       </c>
-      <c r="C70" s="47">
-        <v>11</v>
+      <c r="C70" s="45" t="s">
+        <v>20</v>
       </c>
       <c r="D70" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2570,11 +2606,11 @@
       <c r="P70" s="36"/>
     </row>
     <row r="71" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="42">
+      <c r="B71" s="40">
         <v>2018</v>
       </c>
-      <c r="C71" s="43">
-        <v>10</v>
+      <c r="C71" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="D71" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2597,11 +2633,11 @@
       <c r="P71" s="36"/>
     </row>
     <row r="72" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="46">
+      <c r="B72" s="44">
         <v>2018</v>
       </c>
-      <c r="C72" s="47">
-        <v>9</v>
+      <c r="C72" s="45" t="s">
+        <v>22</v>
       </c>
       <c r="D72" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2624,11 +2660,11 @@
       <c r="P72" s="36"/>
     </row>
     <row r="73" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="42">
+      <c r="B73" s="40">
         <v>2018</v>
       </c>
-      <c r="C73" s="43">
-        <v>8</v>
+      <c r="C73" s="41" t="s">
+        <v>11</v>
       </c>
       <c r="D73" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2651,11 +2687,11 @@
       <c r="P73" s="36"/>
     </row>
     <row r="74" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="46">
+      <c r="B74" s="44">
         <v>2018</v>
       </c>
-      <c r="C74" s="47">
-        <v>7</v>
+      <c r="C74" s="45" t="s">
+        <v>12</v>
       </c>
       <c r="D74" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2678,11 +2714,11 @@
       <c r="P74" s="36"/>
     </row>
     <row r="75" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="42">
+      <c r="B75" s="40">
         <v>2018</v>
       </c>
-      <c r="C75" s="43">
-        <v>6</v>
+      <c r="C75" s="41" t="s">
+        <v>13</v>
       </c>
       <c r="D75" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2705,11 +2741,11 @@
       <c r="P75" s="36"/>
     </row>
     <row r="76" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="46">
+      <c r="B76" s="44">
         <v>2018</v>
       </c>
-      <c r="C76" s="47">
-        <v>5</v>
+      <c r="C76" s="45" t="s">
+        <v>14</v>
       </c>
       <c r="D76" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2732,11 +2768,11 @@
       <c r="P76" s="36"/>
     </row>
     <row r="77" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="42">
+      <c r="B77" s="40">
         <v>2018</v>
       </c>
-      <c r="C77" s="43">
-        <v>4</v>
+      <c r="C77" s="41" t="s">
+        <v>15</v>
       </c>
       <c r="D77" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2759,11 +2795,11 @@
       <c r="P77" s="36"/>
     </row>
     <row r="78" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="46">
+      <c r="B78" s="44">
         <v>2018</v>
       </c>
-      <c r="C78" s="47">
-        <v>3</v>
+      <c r="C78" s="45" t="s">
+        <v>16</v>
       </c>
       <c r="D78" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2786,11 +2822,11 @@
       <c r="P78" s="36"/>
     </row>
     <row r="79" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="42">
+      <c r="B79" s="40">
         <v>2018</v>
       </c>
-      <c r="C79" s="43">
-        <v>2</v>
+      <c r="C79" s="41" t="s">
+        <v>17</v>
       </c>
       <c r="D79" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2813,11 +2849,11 @@
       <c r="P79" s="36"/>
     </row>
     <row r="80" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="46">
+      <c r="B80" s="44">
         <v>2018</v>
       </c>
-      <c r="C80" s="47">
-        <v>1</v>
+      <c r="C80" s="45" t="s">
+        <v>18</v>
       </c>
       <c r="D80" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2841,14 +2877,14 @@
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>4</v>
       </c>
-      <c r="I82" s="50"/>
+      <c r="I82" s="48"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I83" s="3"/>

--- a/Acc_fijos_N.xlsx
+++ b/Acc_fijos_N.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\4-Comunicaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683BBB74-929D-4D48-A2E5-FB06C64622BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2A2A9F-8364-498E-B016-49FC371BC7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_42.1" sheetId="1" r:id="rId1"/>
@@ -62,16 +62,10 @@
     <t>Penetración (Accesos p/c 100 hogares)</t>
   </si>
   <si>
-    <t>Accesos a internet fijos</t>
-  </si>
-  <si>
     <t>Mes</t>
   </si>
   <si>
     <t>Año</t>
-  </si>
-  <si>
-    <t>Actualización: agosto 2024.</t>
   </si>
   <si>
     <t>Ago.</t>
@@ -112,6 +106,12 @@
   <si>
     <t>Accesos a internet fijo</t>
   </si>
+  <si>
+    <t>Actualización: Octubre 2024.</t>
+  </si>
+  <si>
+    <t>Servicio fijo de acceso internet</t>
+  </si>
 </sst>
 </file>
 
@@ -124,40 +124,40 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -165,13 +165,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -201,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -295,12 +295,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -394,11 +431,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -434,7 +477,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -481,7 +524,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -546,7 +589,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -554,28 +597,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -584,14 +627,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -768,50 +811,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
   <dimension ref="B2:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="5.796875" customWidth="1"/>
-    <col min="3" max="3" width="6.3984375" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8984375" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="5.75" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="34"/>
       <c r="C4" s="33"/>
       <c r="D4" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="50"/>
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-    </row>
-    <row r="5" spans="2:16" ht="36" x14ac:dyDescent="0.35">
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+    </row>
+    <row r="5" spans="2:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>0</v>
@@ -832,12 +876,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="38">
         <v>2024</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="19">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -861,12 +905,12 @@
       <c r="O6" s="36"/>
       <c r="P6" s="36"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="40">
         <v>2024</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="22">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -890,12 +934,12 @@
       <c r="O7" s="36"/>
       <c r="P7" s="36"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="42">
         <v>2024</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="28">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -919,12 +963,12 @@
       <c r="O8" s="36"/>
       <c r="P8" s="36"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="40">
         <v>2023</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" s="22">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -948,12 +992,12 @@
       <c r="O9" s="36"/>
       <c r="P9" s="36"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="44">
         <v>2023</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="25">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -977,12 +1021,12 @@
       <c r="O10" s="36"/>
       <c r="P10" s="36"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="40">
         <v>2023</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="22">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1006,12 +1050,12 @@
       <c r="O11" s="36"/>
       <c r="P11" s="36"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="44">
         <v>2023</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="25">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1035,12 +1079,12 @@
       <c r="O12" s="36"/>
       <c r="P12" s="36"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="40">
         <v>2023</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" s="22">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1064,12 +1108,12 @@
       <c r="O13" s="36"/>
       <c r="P13" s="36"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="44">
         <v>2023</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="25">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1093,12 +1137,12 @@
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="40">
         <v>2023</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15" s="22">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1120,12 +1164,12 @@
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="44">
         <v>2023</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" s="25">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1147,12 +1191,12 @@
       <c r="O16" s="36"/>
       <c r="P16" s="36"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="40">
         <v>2023</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="22">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1174,12 +1218,12 @@
       <c r="O17" s="36"/>
       <c r="P17" s="36"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="44">
         <v>2023</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" s="25">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1201,12 +1245,12 @@
       <c r="O18" s="36"/>
       <c r="P18" s="36"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="40">
         <v>2023</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D19" s="22">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1228,12 +1272,12 @@
       <c r="O19" s="36"/>
       <c r="P19" s="36"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="42">
         <v>2023</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" s="28">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1255,12 +1299,12 @@
       <c r="O20" s="36"/>
       <c r="P20" s="36"/>
     </row>
-    <row r="21" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="46">
         <v>2022</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D21" s="10">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1282,12 +1326,12 @@
       <c r="O21" s="36"/>
       <c r="P21" s="36"/>
     </row>
-    <row r="22" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="44">
         <v>2022</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D22" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1309,12 +1353,12 @@
       <c r="O22" s="36"/>
       <c r="P22" s="36"/>
     </row>
-    <row r="23" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="40">
         <v>2022</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D23" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1336,12 +1380,12 @@
       <c r="O23" s="36"/>
       <c r="P23" s="36"/>
     </row>
-    <row r="24" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="44">
         <v>2022</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D24" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1363,12 +1407,12 @@
       <c r="O24" s="36"/>
       <c r="P24" s="36"/>
     </row>
-    <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="40">
         <v>2022</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D25" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1390,12 +1434,12 @@
       <c r="O25" s="36"/>
       <c r="P25" s="36"/>
     </row>
-    <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="44">
         <v>2022</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D26" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1417,12 +1461,12 @@
       <c r="O26" s="36"/>
       <c r="P26" s="36"/>
     </row>
-    <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="40">
         <v>2022</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D27" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1444,12 +1488,12 @@
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
     </row>
-    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="44">
         <v>2022</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D28" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1471,12 +1515,12 @@
       <c r="O28" s="36"/>
       <c r="P28" s="36"/>
     </row>
-    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="40">
         <v>2022</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D29" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1498,12 +1542,12 @@
       <c r="O29" s="36"/>
       <c r="P29" s="36"/>
     </row>
-    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="44">
         <v>2022</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D30" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1525,12 +1569,12 @@
       <c r="O30" s="36"/>
       <c r="P30" s="36"/>
     </row>
-    <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="40">
         <v>2022</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D31" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1552,12 +1596,12 @@
       <c r="O31" s="36"/>
       <c r="P31" s="36"/>
     </row>
-    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="42">
         <v>2022</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D32" s="8">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1579,12 +1623,12 @@
       <c r="O32" s="36"/>
       <c r="P32" s="36"/>
     </row>
-    <row r="33" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="46">
         <v>2021</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D33" s="10">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1606,12 +1650,12 @@
       <c r="O33" s="36"/>
       <c r="P33" s="36"/>
     </row>
-    <row r="34" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="44">
         <v>2021</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D34" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1633,12 +1677,12 @@
       <c r="O34" s="36"/>
       <c r="P34" s="36"/>
     </row>
-    <row r="35" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="40">
         <v>2021</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D35" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1660,12 +1704,12 @@
       <c r="O35" s="36"/>
       <c r="P35" s="36"/>
     </row>
-    <row r="36" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="44">
         <v>2021</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D36" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1687,12 +1731,12 @@
       <c r="O36" s="36"/>
       <c r="P36" s="36"/>
     </row>
-    <row r="37" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="40">
         <v>2021</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D37" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1714,12 +1758,12 @@
       <c r="O37" s="36"/>
       <c r="P37" s="36"/>
     </row>
-    <row r="38" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="44">
         <v>2021</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D38" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1741,12 +1785,12 @@
       <c r="O38" s="36"/>
       <c r="P38" s="36"/>
     </row>
-    <row r="39" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="40">
         <v>2021</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D39" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1768,12 +1812,12 @@
       <c r="O39" s="36"/>
       <c r="P39" s="36"/>
     </row>
-    <row r="40" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="44">
         <v>2021</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D40" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1795,12 +1839,12 @@
       <c r="O40" s="36"/>
       <c r="P40" s="36"/>
     </row>
-    <row r="41" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="40">
         <v>2021</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D41" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1822,12 +1866,12 @@
       <c r="O41" s="36"/>
       <c r="P41" s="36"/>
     </row>
-    <row r="42" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="44">
         <v>2021</v>
       </c>
       <c r="C42" s="45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D42" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1849,12 +1893,12 @@
       <c r="O42" s="36"/>
       <c r="P42" s="36"/>
     </row>
-    <row r="43" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="40">
         <v>2021</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D43" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1876,12 +1920,12 @@
       <c r="O43" s="36"/>
       <c r="P43" s="36"/>
     </row>
-    <row r="44" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="42">
         <v>2021</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D44" s="8">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1903,12 +1947,12 @@
       <c r="O44" s="36"/>
       <c r="P44" s="36"/>
     </row>
-    <row r="45" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="46">
         <v>2020</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D45" s="10">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1930,12 +1974,12 @@
       <c r="O45" s="36"/>
       <c r="P45" s="36"/>
     </row>
-    <row r="46" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="44">
         <v>2020</v>
       </c>
       <c r="C46" s="45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D46" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1957,12 +2001,12 @@
       <c r="O46" s="36"/>
       <c r="P46" s="36"/>
     </row>
-    <row r="47" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="40">
         <v>2020</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D47" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -1984,12 +2028,12 @@
       <c r="O47" s="36"/>
       <c r="P47" s="36"/>
     </row>
-    <row r="48" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="44">
         <v>2020</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D48" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2011,12 +2055,12 @@
       <c r="O48" s="36"/>
       <c r="P48" s="36"/>
     </row>
-    <row r="49" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="40">
         <v>2020</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D49" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2038,12 +2082,12 @@
       <c r="O49" s="36"/>
       <c r="P49" s="36"/>
     </row>
-    <row r="50" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="44">
         <v>2020</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D50" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2065,12 +2109,12 @@
       <c r="O50" s="36"/>
       <c r="P50" s="36"/>
     </row>
-    <row r="51" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="40">
         <v>2020</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D51" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2092,12 +2136,12 @@
       <c r="O51" s="36"/>
       <c r="P51" s="36"/>
     </row>
-    <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="44">
         <v>2020</v>
       </c>
       <c r="C52" s="45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D52" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2119,12 +2163,12 @@
       <c r="O52" s="36"/>
       <c r="P52" s="36"/>
     </row>
-    <row r="53" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="40">
         <v>2020</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D53" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2146,12 +2190,12 @@
       <c r="O53" s="36"/>
       <c r="P53" s="36"/>
     </row>
-    <row r="54" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="44">
         <v>2020</v>
       </c>
       <c r="C54" s="45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D54" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2173,12 +2217,12 @@
       <c r="O54" s="36"/>
       <c r="P54" s="36"/>
     </row>
-    <row r="55" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="40">
         <v>2020</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D55" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2200,12 +2244,12 @@
       <c r="O55" s="36"/>
       <c r="P55" s="36"/>
     </row>
-    <row r="56" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="42">
         <v>2020</v>
       </c>
       <c r="C56" s="43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D56" s="8">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2227,12 +2271,12 @@
       <c r="O56" s="36"/>
       <c r="P56" s="36"/>
     </row>
-    <row r="57" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="46">
         <v>2019</v>
       </c>
       <c r="C57" s="47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D57" s="10">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2254,12 +2298,12 @@
       <c r="O57" s="36"/>
       <c r="P57" s="36"/>
     </row>
-    <row r="58" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="44">
         <v>2019</v>
       </c>
       <c r="C58" s="45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D58" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2281,12 +2325,12 @@
       <c r="O58" s="36"/>
       <c r="P58" s="36"/>
     </row>
-    <row r="59" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="40">
         <v>2019</v>
       </c>
       <c r="C59" s="41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D59" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2308,12 +2352,12 @@
       <c r="O59" s="36"/>
       <c r="P59" s="36"/>
     </row>
-    <row r="60" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="44">
         <v>2019</v>
       </c>
       <c r="C60" s="45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D60" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2335,12 +2379,12 @@
       <c r="O60" s="36"/>
       <c r="P60" s="36"/>
     </row>
-    <row r="61" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="40">
         <v>2019</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D61" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2362,12 +2406,12 @@
       <c r="O61" s="36"/>
       <c r="P61" s="36"/>
     </row>
-    <row r="62" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="44">
         <v>2019</v>
       </c>
       <c r="C62" s="45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D62" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2389,12 +2433,12 @@
       <c r="O62" s="36"/>
       <c r="P62" s="36"/>
     </row>
-    <row r="63" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="40">
         <v>2019</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D63" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2416,12 +2460,12 @@
       <c r="O63" s="36"/>
       <c r="P63" s="36"/>
     </row>
-    <row r="64" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="44">
         <v>2019</v>
       </c>
       <c r="C64" s="45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D64" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2443,12 +2487,12 @@
       <c r="O64" s="36"/>
       <c r="P64" s="36"/>
     </row>
-    <row r="65" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="40">
         <v>2019</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D65" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2470,12 +2514,12 @@
       <c r="O65" s="36"/>
       <c r="P65" s="36"/>
     </row>
-    <row r="66" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="44">
         <v>2019</v>
       </c>
       <c r="C66" s="45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D66" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2497,12 +2541,12 @@
       <c r="O66" s="36"/>
       <c r="P66" s="36"/>
     </row>
-    <row r="67" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="40">
         <v>2019</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D67" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2524,12 +2568,12 @@
       <c r="O67" s="36"/>
       <c r="P67" s="36"/>
     </row>
-    <row r="68" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="42">
         <v>2019</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D68" s="8">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2551,12 +2595,12 @@
       <c r="O68" s="36"/>
       <c r="P68" s="36"/>
     </row>
-    <row r="69" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="40">
         <v>2018</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D69" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2578,12 +2622,12 @@
       <c r="O69" s="36"/>
       <c r="P69" s="36"/>
     </row>
-    <row r="70" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="44">
         <v>2018</v>
       </c>
       <c r="C70" s="45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D70" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2605,12 +2649,12 @@
       <c r="O70" s="36"/>
       <c r="P70" s="36"/>
     </row>
-    <row r="71" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="40">
         <v>2018</v>
       </c>
       <c r="C71" s="41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D71" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2632,12 +2676,12 @@
       <c r="O71" s="36"/>
       <c r="P71" s="36"/>
     </row>
-    <row r="72" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="44">
         <v>2018</v>
       </c>
       <c r="C72" s="45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D72" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2659,12 +2703,12 @@
       <c r="O72" s="36"/>
       <c r="P72" s="36"/>
     </row>
-    <row r="73" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="40">
         <v>2018</v>
       </c>
       <c r="C73" s="41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D73" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2686,12 +2730,12 @@
       <c r="O73" s="36"/>
       <c r="P73" s="36"/>
     </row>
-    <row r="74" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="44">
         <v>2018</v>
       </c>
       <c r="C74" s="45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D74" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2713,12 +2757,12 @@
       <c r="O74" s="36"/>
       <c r="P74" s="36"/>
     </row>
-    <row r="75" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="40">
         <v>2018</v>
       </c>
       <c r="C75" s="41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D75" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2740,12 +2784,12 @@
       <c r="O75" s="36"/>
       <c r="P75" s="36"/>
     </row>
-    <row r="76" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="44">
         <v>2018</v>
       </c>
       <c r="C76" s="45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D76" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2767,12 +2811,12 @@
       <c r="O76" s="36"/>
       <c r="P76" s="36"/>
     </row>
-    <row r="77" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="40">
         <v>2018</v>
       </c>
       <c r="C77" s="41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D77" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2794,12 +2838,12 @@
       <c r="O77" s="36"/>
       <c r="P77" s="36"/>
     </row>
-    <row r="78" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="44">
         <v>2018</v>
       </c>
       <c r="C78" s="45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D78" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2821,12 +2865,12 @@
       <c r="O78" s="36"/>
       <c r="P78" s="36"/>
     </row>
-    <row r="79" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="40">
         <v>2018</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D79" s="18">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2848,12 +2892,12 @@
       <c r="O79" s="36"/>
       <c r="P79" s="36"/>
     </row>
-    <row r="80" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="44">
         <v>2018</v>
       </c>
       <c r="C80" s="45" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D80" s="7">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Ambos]])</f>
@@ -2875,23 +2919,23 @@
       <c r="O80" s="36"/>
       <c r="P80" s="36"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>4</v>
       </c>
       <c r="I82" s="48"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I83" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
